--- a/exam.xlsx
+++ b/exam.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
-    <t>Student.ID</t>
+    <t>ID</t>
   </si>
   <si>
     <t>Gender</t>
@@ -144,7 +144,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
